--- a/static/import/student_enrollment_template.xlsx
+++ b/static/import/student_enrollment_template.xlsx
@@ -1,14 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ray\Desktop\git_projects\ope\smc\static\import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet name="SIMPLE SHEET" sheetId="1" r:id="rId1"/>
-    <sheet name="COMPLEX SHEET" sheetId="2" r:id="rId2"/>
+    <sheet name="STUDENT USERS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="Time">#REF!</definedName>
@@ -18,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -44,84 +48,9 @@
     <t>ACCT100,ACCT101</t>
   </si>
   <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>RLC</t>
-  </si>
-  <si>
-    <t>ERD</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Instructor</t>
-  </si>
-  <si>
     <t>Program</t>
   </si>
   <si>
-    <t>Classes</t>
-  </si>
-  <si>
-    <t>Credits</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Th</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Notes2</t>
-  </si>
-  <si>
-    <t>Smith, Ed</t>
-  </si>
-  <si>
-    <t>Smith, Sam</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>HV</t>
-  </si>
-  <si>
-    <t>1300-1555</t>
-  </si>
-  <si>
-    <t>Peet</t>
-  </si>
-  <si>
-    <t>DeCou</t>
-  </si>
-  <si>
-    <t>MATH FROM WALLA WALLA</t>
-  </si>
-  <si>
-    <t>SEG 9-24-13</t>
-  </si>
-  <si>
     <t>User ID</t>
   </si>
   <si>
@@ -129,9 +58,6 @@
   </si>
   <si>
     <t>ACCT</t>
-  </si>
-  <si>
-    <t>BUS</t>
   </si>
 </sst>
 </file>
@@ -186,6 +112,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -233,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,7 +197,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +422,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -505,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,7 +448,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -547,240 +476,10 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>777779</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>41980</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>41554</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>777780</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6">
-        <v>41981</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6">
-        <v>10</v>
-      </c>
-      <c r="M6">
-        <v>41535</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I6">
-      <formula1>Time</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>